--- a/Input-Group7.xlsx
+++ b/Input-Group7.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PC HAFID\Partition D\Master 203\2020-2021\Examen\ToSendToPauline\Group 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elyès Chenik\Documents\Dauphine\M2\Fixed Income\FI_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090A6710-2074-4B2B-9490-AB1693B9947E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C918EFA0-FDC2-4522-B358-88B1F65402B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="872" activeTab="3" xr2:uid="{08307472-78F2-4B9F-AC3E-0522365EB471}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="872" activeTab="1" xr2:uid="{08307472-78F2-4B9F-AC3E-0522365EB471}"/>
   </bookViews>
   <sheets>
     <sheet name="Conventions" sheetId="8" r:id="rId1"/>
-    <sheet name="USD3M - Curve for forwards" sheetId="4" r:id="rId2"/>
-    <sheet name="OIS Curve for discounting" sheetId="5" r:id="rId3"/>
-    <sheet name="VolSwaption" sheetId="7" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="9" r:id="rId2"/>
+    <sheet name="USD3M - Curve for forwards" sheetId="4" r:id="rId3"/>
+    <sheet name="OIS Curve for discounting" sheetId="5" r:id="rId4"/>
+    <sheet name="VolSwaption" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -288,7 +289,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -304,7 +305,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -600,23 +601,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555E6F73-560E-4F87-BC2F-FBFC94701F09}">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="C2:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
@@ -624,12 +626,12 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>34</v>
       </c>
@@ -637,12 +639,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>34</v>
       </c>
@@ -650,7 +652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -658,7 +660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>38</v>
       </c>
@@ -669,12 +671,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
@@ -682,7 +684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -696,7 +698,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>34</v>
       </c>
@@ -710,7 +712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>37</v>
       </c>
@@ -724,7 +726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>38</v>
       </c>
@@ -735,106 +737,106 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H22" s="1"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H23" s="1"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H24" s="1"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H25" s="1"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H26" s="1"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H27" s="1"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I36" s="7"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I37" s="7"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I38" s="7"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I40" s="7"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I42" s="7"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I43" s="7"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I44" s="7"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I46" s="7"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
@@ -847,21 +849,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E9B721-69C7-4F28-A492-E3A53EDD032B}">
+  <sheetPr codeName="Feuil5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DCA1DB-39D4-468F-B7D5-E7B502B8ED8D}">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
@@ -869,7 +885,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
@@ -883,7 +899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -897,7 +913,7 @@
         <v>0.99710100000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -911,7 +927,7 @@
         <v>0.99436800000000003</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -925,7 +941,7 @@
         <v>0.99080299999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -939,7 +955,7 @@
         <v>0.98701799999999995</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -953,7 +969,7 @@
         <v>0.98305500000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -967,7 +983,7 @@
         <v>0.97886700000000004</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -981,7 +997,7 @@
         <v>0.97447099999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -995,7 +1011,7 @@
         <v>0.96913499999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -1009,7 +1025,7 @@
         <v>0.94948900000000003</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1023,7 +1039,7 @@
         <v>0.92832300000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -1037,7 +1053,7 @@
         <v>0.906277</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1067,7 @@
         <v>0.88341599999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>0.86065800000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1079,7 +1095,7 @@
         <v>0.83777900000000005</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -1093,7 +1109,7 @@
         <v>0.81493800000000005</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1112,22 +1128,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A68AC80-2FB1-4F90-B3F0-C04A40EBB43E}">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1135,7 +1152,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -1163,7 +1180,7 @@
         <v>0.99992400000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -1177,7 +1194,7 @@
         <v>0.99982300000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -1191,7 +1208,7 @@
         <v>0.99964600000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -1205,7 +1222,7 @@
         <v>0.99947799999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -1219,7 +1236,7 @@
         <v>0.99922599999999995</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1233,7 +1250,7 @@
         <v>0.99847200000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>26</v>
       </c>
@@ -1247,7 +1264,7 @@
         <v>0.99763199999999996</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -1261,7 +1278,7 @@
         <v>0.99672300000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -1275,7 +1292,7 @@
         <v>0.99580000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1289,7 +1306,7 @@
         <v>0.99476799999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -1303,7 +1320,7 @@
         <v>0.99175000000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -1317,7 +1334,7 @@
         <v>0.98852700000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -1331,7 +1348,7 @@
         <v>0.98154600000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1345,7 +1362,7 @@
         <v>0.97385900000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -1359,7 +1376,7 @@
         <v>0.95683499999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1390,7 @@
         <v>0.93862500000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -1387,7 +1404,7 @@
         <v>0.91930900000000004</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -1406,25 +1423,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E20F68-B48E-481E-ACEB-44F92FDD4391}">
+  <sheetPr codeName="Feuil4"/>
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
@@ -1439,7 +1457,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
@@ -1454,7 +1472,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>48</v>
       </c>
@@ -1466,7 +1484,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>49</v>
       </c>
@@ -1478,7 +1496,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1486,14 +1504,14 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1503,7 +1521,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
